--- a/Annotation-Tool/labels.xlsx
+++ b/Annotation-Tool/labels.xlsx
@@ -413,8 +413,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077B5EE1C4CB6D9478F8FD6EEB2A7075D" ma:contentTypeVersion="9" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="47b833592036f3b6cf353ed799e4dd47">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3e41e22-8f29-4ad6-8353-40b60c224234" xmlns:ns3="1b00ab3b-a77c-48e5-be17-35dacee2001a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8730ef0c0033c2884b7195e8bf66f661" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010077B5EE1C4CB6D9478F8FD6EEB2A7075D" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8b81fb36766d942822f98f41631d5fda">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b3e41e22-8f29-4ad6-8353-40b60c224234" xmlns:ns3="1b00ab3b-a77c-48e5-be17-35dacee2001a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="97170e210dbd2b39a5c518312f5769e2" ns2:_="" ns3:_="">
     <xsd:import namespace="b3e41e22-8f29-4ad6-8353-40b60c224234"/>
     <xsd:import namespace="1b00ab3b-a77c-48e5-be17-35dacee2001a"/>
     <xsd:element name="properties">
@@ -451,7 +451,7 @@
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Afbeeldingtags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="f9fc2d29-e47d-4962-b2bb-d877dae46607" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="11" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="f9fc2d29-e47d-4962-b2bb-d877dae46607" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -505,8 +505,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhoudstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -615,7 +615,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE7EE51A-F02B-4E9E-A235-7B044B7459C0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE806179-EF30-4EB9-9B4C-1BFF221774AA}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
